--- a/superpy/superpy/revenue_report.xlsx
+++ b/superpy/superpy/revenue_report.xlsx
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>December 2023</t>
+          <t>December 2019</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
